--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a75_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a75_reformulation.xlsx
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-304.30358535466974</v>
+        <v>-123.47338606118794</v>
       </c>
       <c r="C2">
-        <v>1.8679838686270358e-14</v>
+        <v>0.09136807702319806</v>
       </c>
       <c r="D2">
-        <v>3.269161321</v>
+        <v>62.406021743</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-297.0669055353195</v>
+        <v>-117.61674244158768</v>
       </c>
       <c r="C3">
-        <v>3.826977546243739e-14</v>
+        <v>0.0646728753907774</v>
       </c>
       <c r="D3">
-        <v>0.703204841</v>
+        <v>78.841764898</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-312.40904397703724</v>
+        <v>-122.00142694489112</v>
       </c>
       <c r="C4">
-        <v>1.819518991421002e-14</v>
+        <v>0.07604737257360063</v>
       </c>
       <c r="D4">
-        <v>0.629620082</v>
+        <v>67.70893263</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-317.203342894221</v>
+        <v>-121.30725095787741</v>
       </c>
       <c r="C5">
-        <v>1.792018278941842e-14</v>
+        <v>0.09996849057912861</v>
       </c>
       <c r="D5">
-        <v>0.632454104</v>
+        <v>95.756308402</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-302.6749030743839</v>
+        <v>-120.12292887523154</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0.0840953498554457</v>
       </c>
       <c r="D6">
-        <v>1.235843228</v>
+        <v>69.010277998</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-303.18625433246655</v>
+        <v>-118.89272648754448</v>
       </c>
       <c r="C7">
-        <v>1.874867941686307e-14</v>
+        <v>0.08608142800931605</v>
       </c>
       <c r="D7">
-        <v>1.096404996</v>
+        <v>62.188166612</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-293.5572988833811</v>
+        <v>-115.03704432900317</v>
       </c>
       <c r="C8">
-        <v>1.9363653731999465e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D8">
-        <v>0.667544848</v>
+        <v>77.680880971</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-302.6320763645107</v>
+        <v>-119.44147912757283</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0.09684089792055087</v>
       </c>
       <c r="D9">
-        <v>0.655861168</v>
+        <v>96.448602382</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-311.9147911076324</v>
+        <v>-120.14729823432504</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0.09943172612207225</v>
       </c>
       <c r="D10">
-        <v>0.679446287</v>
+        <v>72.967578873</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-293.13603103747107</v>
+        <v>-116.2650930538125</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0.0936922930803802</v>
       </c>
       <c r="D11">
-        <v>0.66171457</v>
+        <v>99.783351422</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
